--- a/Bhardwaj/hlr.xlsx
+++ b/Bhardwaj/hlr.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Testing\Bhardwaj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="testcase" sheetId="3" r:id="rId3"/>
+    <sheet name="Defect report" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="335">
   <si>
     <t>Module Name</t>
   </si>
@@ -427,12 +430,821 @@
   <si>
     <t>acc.usually done when cash is withdrawn</t>
   </si>
+  <si>
+    <t>Test Scaenario Id</t>
+  </si>
+  <si>
+    <t>TestScenario Name</t>
+  </si>
+  <si>
+    <t>Add New customer</t>
+  </si>
+  <si>
+    <t>sc_new_1</t>
+  </si>
+  <si>
+    <t>verify Customer name</t>
+  </si>
+  <si>
+    <t>verify gender</t>
+  </si>
+  <si>
+    <t>verify dob</t>
+  </si>
+  <si>
+    <t>verify address</t>
+  </si>
+  <si>
+    <t>verify city</t>
+  </si>
+  <si>
+    <t>verify state</t>
+  </si>
+  <si>
+    <t>verify pin</t>
+  </si>
+  <si>
+    <t>sc_new_2</t>
+  </si>
+  <si>
+    <t>sc_new_3</t>
+  </si>
+  <si>
+    <t>sc_new_4</t>
+  </si>
+  <si>
+    <t>sc_new_5</t>
+  </si>
+  <si>
+    <t>sc_new_6</t>
+  </si>
+  <si>
+    <t>sc_new_7</t>
+  </si>
+  <si>
+    <t>Testscenario Id</t>
+  </si>
+  <si>
+    <t>Testcase Id</t>
+  </si>
+  <si>
+    <t>Testcase name</t>
+  </si>
+  <si>
+    <t>test precondition</t>
+  </si>
+  <si>
+    <t>test step</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>expecrted</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>pass/fail</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>check with numbers</t>
+  </si>
+  <si>
+    <t>check with special char</t>
+  </si>
+  <si>
+    <t>check with blank field</t>
+  </si>
+  <si>
+    <t>check first char. With space</t>
+  </si>
+  <si>
+    <t>check with alphabate only</t>
+  </si>
+  <si>
+    <t>Tc_new_1.1</t>
+  </si>
+  <si>
+    <t>Tc_new_1.2</t>
+  </si>
+  <si>
+    <t>Tc_new_1.3</t>
+  </si>
+  <si>
+    <t>Tc_new_1.4</t>
+  </si>
+  <si>
+    <t>Tc_new_1.5</t>
+  </si>
+  <si>
+    <t>manager must be login with valid credentials</t>
+  </si>
+  <si>
+    <t>Enter data 
+move to next field</t>
+  </si>
+  <si>
+    <t>keep field blank
+move to next field</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>abc#$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   abc xyz</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Error msg</t>
+  </si>
+  <si>
+    <t>data  should accept</t>
+  </si>
+  <si>
+    <t>as per expected</t>
+  </si>
+  <si>
+    <t>wrong error message</t>
+  </si>
+  <si>
+    <t>As per expected</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Buig id</t>
+  </si>
+  <si>
+    <t>bug title</t>
+  </si>
+  <si>
+    <t>bug category</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>bug status</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>validation problem</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>verify customer address</t>
+  </si>
+  <si>
+    <t>Tc_new_2.1</t>
+  </si>
+  <si>
+    <t>check with blank</t>
+  </si>
+  <si>
+    <t>check first character with space</t>
+  </si>
+  <si>
+    <t>check with special character</t>
+  </si>
+  <si>
+    <t>chech with valid address</t>
+  </si>
+  <si>
+    <t>Enter data move to next field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  srt amr</t>
+  </si>
+  <si>
+    <t>srt +=$$$$$</t>
+  </si>
+  <si>
+    <t>srt amr</t>
+  </si>
+  <si>
+    <t>error masage</t>
+  </si>
+  <si>
+    <t>data should be expected</t>
+  </si>
+  <si>
+    <t>data should be accpect</t>
+  </si>
+  <si>
+    <t>verify customer city</t>
+  </si>
+  <si>
+    <t>Tc_new_2.2</t>
+  </si>
+  <si>
+    <t>check with valid city name</t>
+  </si>
+  <si>
+    <t>surat+</t>
+  </si>
+  <si>
+    <t>surat1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  surat</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>error massege</t>
+  </si>
+  <si>
+    <t>data should be accepted</t>
+  </si>
+  <si>
+    <t>wrong error massege</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>verify customer state</t>
+  </si>
+  <si>
+    <t>Tc_new_2.3</t>
+  </si>
+  <si>
+    <t>Tc_new_2.4</t>
+  </si>
+  <si>
+    <t>Tc_new_3.1</t>
+  </si>
+  <si>
+    <t>Tc_new_3.2</t>
+  </si>
+  <si>
+    <t>Tc_new_3.3</t>
+  </si>
+  <si>
+    <t>Tc_new_3.4</t>
+  </si>
+  <si>
+    <t>Tc_new_3.5</t>
+  </si>
+  <si>
+    <t>Tc_new_4.1</t>
+  </si>
+  <si>
+    <t>Tc_new_4.2</t>
+  </si>
+  <si>
+    <t>Tc_new_4.3</t>
+  </si>
+  <si>
+    <t>Tc_new_4.4</t>
+  </si>
+  <si>
+    <t>Tc_new_4.5</t>
+  </si>
+  <si>
+    <t>check with number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check with special character </t>
+  </si>
+  <si>
+    <t>check with valid state name</t>
+  </si>
+  <si>
+    <t>manager must be login with valid credential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gujarat</t>
+  </si>
+  <si>
+    <t>gujarat1</t>
+  </si>
+  <si>
+    <t>gujarat$</t>
+  </si>
+  <si>
+    <t>gujarat</t>
+  </si>
+  <si>
+    <t>wrong error massage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as per expected </t>
+  </si>
+  <si>
+    <t>verify customer PIN</t>
+  </si>
+  <si>
+    <t>Tc_new_5.1</t>
+  </si>
+  <si>
+    <t>Tc_new_5.2</t>
+  </si>
+  <si>
+    <t>Tc_new_5.3</t>
+  </si>
+  <si>
+    <t>Tc_new_5.4</t>
+  </si>
+  <si>
+    <t>Tc_new_5.5</t>
+  </si>
+  <si>
+    <t>check with character</t>
+  </si>
+  <si>
+    <t>check with 6 digit</t>
+  </si>
+  <si>
+    <t>12345d</t>
+  </si>
+  <si>
+    <t>12345?</t>
+  </si>
+  <si>
+    <t>error massage</t>
+  </si>
+  <si>
+    <t>Edit customer</t>
+  </si>
+  <si>
+    <t>sc_new_8</t>
+  </si>
+  <si>
+    <t>verify customer ID</t>
+  </si>
+  <si>
+    <t>Tc_new_6.1</t>
+  </si>
+  <si>
+    <t>Tc_new_6.2</t>
+  </si>
+  <si>
+    <t>Tc_new_6.3</t>
+  </si>
+  <si>
+    <t>Tc_new_6.4</t>
+  </si>
+  <si>
+    <t>Tc_new_6.5</t>
+  </si>
+  <si>
+    <t>verify customer phone number</t>
+  </si>
+  <si>
+    <t>enter data move to next step</t>
+  </si>
+  <si>
+    <t>80002550?</t>
+  </si>
+  <si>
+    <t>80002550b</t>
+  </si>
+  <si>
+    <t>not having any error massage</t>
+  </si>
+  <si>
+    <t>check with valid number</t>
+  </si>
+  <si>
+    <t>verify customer e-mail id</t>
+  </si>
+  <si>
+    <t>Tc_new_7.1</t>
+  </si>
+  <si>
+    <t>enter data move to next field</t>
+  </si>
+  <si>
+    <t>Tc_new_7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cjdj@gmail.com</t>
+  </si>
+  <si>
+    <t>Tc_new_7.3</t>
+  </si>
+  <si>
+    <t>check with valid id</t>
+  </si>
+  <si>
+    <t>cjdj@gmail.com</t>
+  </si>
+  <si>
+    <t>Tc_new_7.4</t>
+  </si>
+  <si>
+    <t>check with invalid id</t>
+  </si>
+  <si>
+    <t>gchdh@sj.c</t>
+  </si>
+  <si>
+    <t>sc_new_9</t>
+  </si>
+  <si>
+    <t>sc_new_10</t>
+  </si>
+  <si>
+    <t>Tc_new_8.1</t>
+  </si>
+  <si>
+    <t>Tc_new_8.2</t>
+  </si>
+  <si>
+    <t>Tc_new_8.3</t>
+  </si>
+  <si>
+    <t>Tc_new_8.4</t>
+  </si>
+  <si>
+    <t>Tc_new_8.5</t>
+  </si>
+  <si>
+    <t>Tc_new_8.6</t>
+  </si>
+  <si>
+    <t>Tc_new_8.7</t>
+  </si>
+  <si>
+    <t>manager should be login with valid credential</t>
+  </si>
+  <si>
+    <t>/?</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>check less then valid digits</t>
+  </si>
+  <si>
+    <t>check more then valid digits</t>
+  </si>
+  <si>
+    <t>check with valid digits</t>
+  </si>
+  <si>
+    <t>didn’t have any error massage</t>
+  </si>
+  <si>
+    <t>check less then valid digit</t>
+  </si>
+  <si>
+    <t>Delete customer</t>
+  </si>
+  <si>
+    <t>sc_new_11</t>
+  </si>
+  <si>
+    <t>Tc_new_9.1</t>
+  </si>
+  <si>
+    <t>Tc_new_9.2</t>
+  </si>
+  <si>
+    <t>Tc_new_9.3</t>
+  </si>
+  <si>
+    <t>Tc_new_9.4</t>
+  </si>
+  <si>
+    <t>Tc_new_9.5</t>
+  </si>
+  <si>
+    <t>Tc_new_9.6</t>
+  </si>
+  <si>
+    <t>Tc_new_9.7</t>
+  </si>
+  <si>
+    <t>check with special cheracter</t>
+  </si>
+  <si>
+    <t>check valid digits with space</t>
+  </si>
+  <si>
+    <t>check more then valid digit</t>
+  </si>
+  <si>
+    <t>Tc_new_9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager should be login with valid credential </t>
+  </si>
+  <si>
+    <t>hdj</t>
+  </si>
+  <si>
+    <t>%$</t>
+  </si>
+  <si>
+    <t>1234  56789</t>
+  </si>
+  <si>
+    <t>didn’t show error massage</t>
+  </si>
+  <si>
+    <t>didn’t accept more data but it should show an error massage</t>
+  </si>
+  <si>
+    <t>check valid digit with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1234 56789</t>
+  </si>
+  <si>
+    <t>Add new account</t>
+  </si>
+  <si>
+    <t>sc_new_12</t>
+  </si>
+  <si>
+    <t>verify customer account type</t>
+  </si>
+  <si>
+    <t>verify customer initial deposit</t>
+  </si>
+  <si>
+    <t>sc_new_13</t>
+  </si>
+  <si>
+    <t>sc_new_14</t>
+  </si>
+  <si>
+    <t>Tc_new_10.1</t>
+  </si>
+  <si>
+    <t>Tc_new_10.2</t>
+  </si>
+  <si>
+    <t>Tc_new_10.3</t>
+  </si>
+  <si>
+    <t>Tc_new_10.4</t>
+  </si>
+  <si>
+    <t>Tc_new_10.5</t>
+  </si>
+  <si>
+    <t>Tc_new_10.6</t>
+  </si>
+  <si>
+    <t>Tc_new_10.7</t>
+  </si>
+  <si>
+    <t>Tc_new_10.8</t>
+  </si>
+  <si>
+    <t>check first digit with space</t>
+  </si>
+  <si>
+    <t>check digit with space in between</t>
+  </si>
+  <si>
+    <t>check with valid digit</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>khl</t>
+  </si>
+  <si>
+    <t>54  85</t>
+  </si>
+  <si>
+    <t>data shold be accepted</t>
+  </si>
+  <si>
+    <t>didn’t show error massage/data accepted</t>
+  </si>
+  <si>
+    <t>check with mare then valid digit</t>
+  </si>
+  <si>
+    <t>Tc_new_11.1</t>
+  </si>
+  <si>
+    <t>Tc_new_11.2</t>
+  </si>
+  <si>
+    <t>Tc_new_11.3</t>
+  </si>
+  <si>
+    <t>Tc_new_11.4</t>
+  </si>
+  <si>
+    <t>fhg</t>
+  </si>
+  <si>
+    <t>check with less then 1000</t>
+  </si>
+  <si>
+    <t>Tc_new_11.5</t>
+  </si>
+  <si>
+    <t>Tc_new_11.6</t>
+  </si>
+  <si>
+    <t>check with less dhen 1000</t>
+  </si>
+  <si>
+    <t>Edit account</t>
+  </si>
+  <si>
+    <t>sc_new_15</t>
+  </si>
+  <si>
+    <t>verify customer account number</t>
+  </si>
+  <si>
+    <t>Tc_new_12.1</t>
+  </si>
+  <si>
+    <t>Tc_new_12.2</t>
+  </si>
+  <si>
+    <t>Tc_new_12.3</t>
+  </si>
+  <si>
+    <t>Tc_new_12.4</t>
+  </si>
+  <si>
+    <t>Tc_new_12.5</t>
+  </si>
+  <si>
+    <t>Tc_new_12.6</t>
+  </si>
+  <si>
+    <t>Tc_new_12.7</t>
+  </si>
+  <si>
+    <t>$%</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>check digits with space in between</t>
+  </si>
+  <si>
+    <t>546 546</t>
+  </si>
+  <si>
+    <t>check with more then valid digits</t>
+  </si>
+  <si>
+    <t>check with less then valid digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t show error massage </t>
+  </si>
+  <si>
+    <t>Tc_new_12.8</t>
+  </si>
+  <si>
+    <t>check with valid acc.number</t>
+  </si>
+  <si>
+    <t>check with less then valid digit</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>sc_new_16</t>
+  </si>
+  <si>
+    <t>Tc_new_13.1</t>
+  </si>
+  <si>
+    <t>Tc_new_13.2</t>
+  </si>
+  <si>
+    <t>Tc_new_13.3</t>
+  </si>
+  <si>
+    <t>Tc_new_13.4</t>
+  </si>
+  <si>
+    <t>Tc_new_13.5</t>
+  </si>
+  <si>
+    <t>Tc_new_13.6</t>
+  </si>
+  <si>
+    <t>Tc_new_13.7</t>
+  </si>
+  <si>
+    <t>Tc_new_13.8</t>
+  </si>
+  <si>
+    <t>check with space in between</t>
+  </si>
+  <si>
+    <t>check with valid account number</t>
+  </si>
+  <si>
+    <t>manager hould be login with valid credential</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>54 32</t>
+  </si>
+  <si>
+    <t>customised statement</t>
+  </si>
+  <si>
+    <t>sc_new_17</t>
+  </si>
+  <si>
+    <t>sc_new_18</t>
+  </si>
+  <si>
+    <t>verify amount lower limit</t>
+  </si>
+  <si>
+    <t>sc_new_19</t>
+  </si>
+  <si>
+    <t>verify number of transection</t>
+  </si>
+  <si>
+    <t>Tc_new_14.1</t>
+  </si>
+  <si>
+    <t>Tc_new_14.2</t>
+  </si>
+  <si>
+    <t>Tc_new_14.3</t>
+  </si>
+  <si>
+    <t>Tc_new_14.4</t>
+  </si>
+  <si>
+    <t>Tc_new_14.5</t>
+  </si>
+  <si>
+    <t>Tc_new_14.6</t>
+  </si>
+  <si>
+    <t>Tc_new_14.7</t>
+  </si>
+  <si>
+    <t>Tc_new_14.8</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>%*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>54 54</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +1275,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -487,18 +1338,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +1685,7 @@
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -1292,4 +2188,3947 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="8"/>
+    <col min="11" max="11" width="14.33203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="15">
+        <v>123356</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="16">
+        <v>12345</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="16">
+        <v>8000255010</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="15">
+        <v>8000255010</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="16">
+        <v>12465</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="19">
+        <v>4</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="15">
+        <v>12345678901</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1234567890</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C53" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C54" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="16">
+        <v>123</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C56" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="19">
+        <v>7</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C57" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="15">
+        <v>46578965266</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C58" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="15">
+        <v>5632187954</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C61" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C62" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="16">
+        <v>54</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C64" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C65" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="19">
+        <v>80007909586</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C66" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" s="19">
+        <v>800079</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C67" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="15">
+        <v>8000790958</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C70" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C71" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C72" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="19">
+        <v>500</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C73" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" s="21">
+        <v>100000</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C74" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C78" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C80" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="16">
+        <v>2</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C81" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C82" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="15">
+        <v>1234567891</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C83" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="19">
+        <v>12345</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C84" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="15">
+        <v>2584450282</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C88" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C89" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C90" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G90" s="16">
+        <v>543</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C91" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C92" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="15">
+        <v>1234567890</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C93" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="19">
+        <v>545</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C94" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" s="15">
+        <v>5454555654</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C98" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C99" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C100" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100" s="16">
+        <v>545</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C101" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C102" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G102" s="19">
+        <v>5</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C103" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103" s="15">
+        <v>12345678910</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C104" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1234567890</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G28" r:id="rId1" display="12345@"/>
+    <hyperlink ref="G40" r:id="rId2"/>
+    <hyperlink ref="G41" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="17">
+        <v>12345</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="17">
+        <v>12465</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="17">
+        <v>123</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="20">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17">
+        <v>54</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="11">
+        <v>80007909586</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="11">
+        <v>800079</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="17">
+        <v>500</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="20">
+        <v>12345</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="17">
+        <v>543</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="20">
+        <v>545</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="17">
+        <v>545</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="20">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bhardwaj/hlr.xlsx
+++ b/Bhardwaj/hlr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
